--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Ajout mouvement gyroscope</t>
   </si>
   <si>
-    <t>Application de la caméra</t>
-  </si>
-  <si>
     <t>Lecture tutoriels</t>
   </si>
   <si>
@@ -141,6 +138,18 @@
   </si>
   <si>
     <t>Recherche d'exemple pour les bases</t>
+  </si>
+  <si>
+    <t>19/03/2018</t>
+  </si>
+  <si>
+    <t>Mise à jour des documents sur le github</t>
+  </si>
+  <si>
+    <t>Problèmes avec l'émulateur d'Android Studio (émulateur trop large et impossible à ajuster)</t>
+  </si>
+  <si>
+    <t>Application caméra</t>
   </si>
 </sst>
 </file>
@@ -1592,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1653,7 +1662,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -1682,23 +1691,15 @@
       <c r="A19" s="10">
         <v>4</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="3">
-        <v>15</v>
-      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>5</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="3">
-        <v>9</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
@@ -1707,7 +1708,7 @@
       <c r="B21" s="19"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -1738,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
@@ -1749,7 +1750,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3">
         <v>4</v>
@@ -1760,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
@@ -1770,15 +1771,23 @@
       <c r="A29" s="10">
         <v>4</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>5</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
@@ -1810,7 +1819,7 @@
       <c r="B34" s="19"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -1834,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1892,14 +1901,26 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
@@ -2013,7 +2034,7 @@
       <c r="B37" s="19"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -119,9 +119,6 @@
     <t>* Les période du mardi matin sont obligatoires. Les autres seront réservés aux questions et rencontres</t>
   </si>
   <si>
-    <t>Création du prototype 3d avec OpenGL es (version 1)</t>
-  </si>
-  <si>
     <t>Création de la logique du jeu de poker</t>
   </si>
   <si>
@@ -150,6 +147,45 @@
   </si>
   <si>
     <t>Application caméra</t>
+  </si>
+  <si>
+    <t>20/03/2018</t>
+  </si>
+  <si>
+    <t>Réglage du problème avec l'émulateur + solution temporaire</t>
+  </si>
+  <si>
+    <t>Création du prototype 3d avec OpenGL es (version 2)</t>
+  </si>
+  <si>
+    <t>21/03/2018</t>
+  </si>
+  <si>
+    <t>Transition de 2d à 3d (théorie)</t>
+  </si>
+  <si>
+    <t>Apprentissage des éléments de base de OpenGL es 2</t>
+  </si>
+  <si>
+    <t>Terminer l'apprentissage des bases OpenGL es 2</t>
+  </si>
+  <si>
+    <t>Téléchargement Android Studio preview 3.0 + exemple projet + analyse courte</t>
+  </si>
+  <si>
+    <t>Transition de 2d à 3d (pratique) Partie 1</t>
+  </si>
+  <si>
+    <t>Transition de 2d à 3d (pratique) Partie 2</t>
+  </si>
+  <si>
+    <t>28/03/2018</t>
+  </si>
+  <si>
+    <t>27/03/2018</t>
+  </si>
+  <si>
+    <t>Dù à la maladie, le temps que j'ai dépensé sur le projet fut effectvement coupé en deux, et je n'ai pas donc le temps requis pour l'itération ni pour lr progrès du projet. De plus, un bonne partie du temps actuel passé sur le projet fut concentré sur l'apprentissage au lieu de l'application.</t>
   </si>
 </sst>
 </file>
@@ -1601,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1659,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3">
         <v>21</v>
@@ -1670,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3">
         <v>12</v>
@@ -1681,7 +1717,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3">
         <v>22</v>
@@ -1739,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
@@ -1750,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="3">
         <v>4</v>
@@ -1761,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
@@ -1772,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="3">
         <v>9</v>
@@ -1783,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="3">
         <v>14</v>
@@ -1843,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1902,10 +1938,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C14" s="15">
         <v>0.5</v>
@@ -1913,49 +1949,91 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="15">
         <v>0.15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
@@ -2034,7 +2112,7 @@
       <c r="B37" s="19"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0.65</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2047,7 +2125,9 @@
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
@@ -2056,7 +2136,9 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B43" s="21"/>
@@ -2323,7 +2405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -2556,7 +2638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -186,6 +186,72 @@
   </si>
   <si>
     <t>Dù à la maladie, le temps que j'ai dépensé sur le projet fut effectvement coupé en deux, et je n'ai pas donc le temps requis pour l'itération ni pour lr progrès du projet. De plus, un bonne partie du temps actuel passé sur le projet fut concentré sur l'apprentissage au lieu de l'application.</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Codage création des cercles et cylindres pour les jetons</t>
+  </si>
+  <si>
+    <t>Optimisation code création (partie 1)</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Optimisation code création (partie 2)</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t>Débogage</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Correction évènement toucher + Textures</t>
+  </si>
+  <si>
+    <t>Modification code pour tester les objets 3d (partie 1)</t>
+  </si>
+  <si>
+    <t>Modification code pour tester les objets 3d (partie 2)</t>
+  </si>
+  <si>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>Encore plus de déboguage</t>
+  </si>
+  <si>
+    <t>10/04/2018</t>
+  </si>
+  <si>
+    <t>Plus de déboguage</t>
+  </si>
+  <si>
+    <t>Création jetons + cartes + table + menu</t>
+  </si>
+  <si>
+    <t>Gestion animation évènements</t>
+  </si>
+  <si>
+    <t>15/04/2018</t>
+  </si>
+  <si>
+    <t>Tentative de trouver une alternative</t>
+  </si>
+  <si>
+    <t>Optimisation code</t>
+  </si>
+  <si>
+    <t>16/04/2018</t>
+  </si>
+  <si>
+    <t>Gestion des listes d'objets (+ déboguage)</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1879,7 +1945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2170,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2228,75 +2294,147 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="15">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C26" s="15"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="C27" s="15"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -2351,7 +2489,7 @@
       <c r="B37" s="19"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -233,25 +233,22 @@
     <t>Plus de déboguage</t>
   </si>
   <si>
-    <t>Création jetons + cartes + table + menu</t>
-  </si>
-  <si>
-    <t>Gestion animation évènements</t>
-  </si>
-  <si>
     <t>15/04/2018</t>
   </si>
   <si>
     <t>Tentative de trouver une alternative</t>
   </si>
   <si>
-    <t>Optimisation code</t>
-  </si>
-  <si>
     <t>16/04/2018</t>
   </si>
   <si>
     <t>Gestion des listes d'objets (+ déboguage)</t>
+  </si>
+  <si>
+    <t>18/04|2018</t>
+  </si>
+  <si>
+    <t>Optimisation code + gestions des évènements touch</t>
   </si>
 </sst>
 </file>
@@ -2236,7 +2233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -2394,10 +2391,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23" s="15">
         <v>3</v>
@@ -2405,19 +2402,21 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="C24" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="B25" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C25" s="15">
         <v>1</v>
@@ -2425,16 +2424,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="B26" s="4"/>
       <c r="C26" s="15"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B27" s="4"/>
       <c r="C27" s="15"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>Optimisation code + gestions des évènements touch</t>
+  </si>
+  <si>
+    <t>Je n'ai pas travailler comme je l'aurais voulu, pour rattrapper mon retard de la première itération, mais du progrès a été fait concernant les mécaniques du prototype : Il se pourrait fortement que je dois abandonner l'idée d'un jeu de poker et me concentrer sur le fonctionnment de l'environnement 3d lui-même</t>
   </si>
 </sst>
 </file>
@@ -2233,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2497,7 +2500,9 @@
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
@@ -2506,7 +2511,9 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B43" s="21"/>

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9585" windowHeight="4185" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="104">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -245,13 +245,91 @@
     <t>Gestion des listes d'objets (+ déboguage)</t>
   </si>
   <si>
-    <t>18/04|2018</t>
-  </si>
-  <si>
     <t>Optimisation code + gestions des évènements touch</t>
   </si>
   <si>
     <t>Je n'ai pas travailler comme je l'aurais voulu, pour rattrapper mon retard de la première itération, mais du progrès a été fait concernant les mécaniques du prototype : Il se pourrait fortement que je dois abandonner l'idée d'un jeu de poker et me concentrer sur le fonctionnment de l'environnement 3d lui-même</t>
+  </si>
+  <si>
+    <t>22/04/2018</t>
+  </si>
+  <si>
+    <t>18/04/2018</t>
+  </si>
+  <si>
+    <t>Recherche layout à utiliser</t>
+  </si>
+  <si>
+    <t>23/04/2018</t>
+  </si>
+  <si>
+    <t>Début programmation du menu (RelativeLayout + GridView)</t>
+  </si>
+  <si>
+    <t>24/04/2018</t>
+  </si>
+  <si>
+    <t>Continuation programmation du menu</t>
+  </si>
+  <si>
+    <t>25/04/2018</t>
+  </si>
+  <si>
+    <t>Transfert de GridLayout à RelativeLayout</t>
+  </si>
+  <si>
+    <t>Modification évènements + menu pour personnaliser les objets</t>
+  </si>
+  <si>
+    <t>30/04/2018</t>
+  </si>
+  <si>
+    <t>Ajout différentes objets (Table + Carte + ???) (partie 1)</t>
+  </si>
+  <si>
+    <t>1/05/2018</t>
+  </si>
+  <si>
+    <t>4/05/2018</t>
+  </si>
+  <si>
+    <t>Textures</t>
+  </si>
+  <si>
+    <t>Ajout différentes objets (Table + Carte + ???) (partie 2) + Tests</t>
+  </si>
+  <si>
+    <t>2/05/2018</t>
+  </si>
+  <si>
+    <t>Recherche pour les textures</t>
+  </si>
+  <si>
+    <t>6/05/2018</t>
+  </si>
+  <si>
+    <t>Retravailler les textures pour l'adapter en 3d (partie 2) + ajout lumières</t>
+  </si>
+  <si>
+    <t>Retravailler les textures pour l'adapter en 3d (partie 1) + ajout lumières</t>
+  </si>
+  <si>
+    <t>Correction bugs lumières</t>
+  </si>
+  <si>
+    <t>7/05/2018</t>
+  </si>
+  <si>
+    <t>8/06/2018</t>
+  </si>
+  <si>
+    <t>Ajout Textures + correction bugs</t>
+  </si>
+  <si>
+    <t>9/06/2018</t>
+  </si>
+  <si>
+    <t>Finalisation Correction textures</t>
   </si>
 </sst>
 </file>
@@ -929,7 +1007,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="91440" y="38100"/>
-          <a:ext cx="6370320" cy="601980"/>
+          <a:ext cx="4544060" cy="605790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1703,49 +1781,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="64.54296875" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="5.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="5.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
@@ -1756,7 +1834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>1</v>
       </c>
@@ -1767,7 +1845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -1778,7 +1856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>3</v>
       </c>
@@ -1789,21 +1867,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>4</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>5</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>7</v>
       </c>
@@ -1813,19 +1891,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>4</v>
       </c>
@@ -1836,7 +1914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>1</v>
       </c>
@@ -1847,7 +1925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>2</v>
       </c>
@@ -1858,7 +1936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>3</v>
       </c>
@@ -1869,7 +1947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>4</v>
       </c>
@@ -1880,7 +1958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>5</v>
       </c>
@@ -1891,7 +1969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>6</v>
       </c>
@@ -1900,21 +1978,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>7</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>8</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>7</v>
       </c>
@@ -1924,7 +2002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="str">
         <f>IF(C21+C34&lt;90,"Il manque "&amp;90-(C21+C34)&amp;"h",IF(C21+C34&gt;90,"Il y a "&amp;(C21+C34)-90&amp;"h de trop",""))</f>
         <v/>
@@ -1945,23 +2023,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="70.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="70.5703125" customWidth="1"/>
     <col min="3" max="3" width="9" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1969,7 +2047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -1977,7 +2055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1985,13 +2063,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="5.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="5.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -2002,7 +2080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>39</v>
       </c>
@@ -2013,7 +2091,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
@@ -2024,7 +2102,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -2035,7 +2113,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -2046,7 +2124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>46</v>
       </c>
@@ -2057,7 +2135,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>46</v>
       </c>
@@ -2068,7 +2146,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
@@ -2079,7 +2157,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
@@ -2090,7 +2168,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -2101,77 +2179,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="15"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>7</v>
       </c>
@@ -2181,13 +2259,13 @@
         <v>10.07</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="17"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
@@ -2195,10 +2273,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
@@ -2206,19 +2284,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="21"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="21"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="21"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="21"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="22"/>
     </row>
   </sheetData>
@@ -2236,23 +2314,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="70.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="70.5703125" customWidth="1"/>
     <col min="3" max="3" width="9" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -2260,7 +2338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -2268,7 +2346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2276,13 +2354,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="5.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="5.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -2293,7 +2371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>56</v>
       </c>
@@ -2304,7 +2382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>56</v>
       </c>
@@ -2315,7 +2393,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>59</v>
       </c>
@@ -2326,7 +2404,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>59</v>
       </c>
@@ -2337,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>61</v>
       </c>
@@ -2348,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>61</v>
       </c>
@@ -2359,7 +2437,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>63</v>
       </c>
@@ -2370,7 +2448,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>67</v>
       </c>
@@ -2381,7 +2459,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>69</v>
       </c>
@@ -2392,7 +2470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>71</v>
       </c>
@@ -2403,20 +2481,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>74</v>
@@ -2425,62 +2503,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="15"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>7</v>
       </c>
@@ -2490,13 +2568,13 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="17"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
@@ -2504,30 +2582,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="21"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="21"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="21"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="21"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="22"/>
     </row>
   </sheetData>
@@ -2545,23 +2623,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="70.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="70.5703125" customWidth="1"/>
     <col min="3" max="3" width="9" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -2569,7 +2647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -2577,7 +2655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2585,13 +2663,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="5.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="5.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -2602,165 +2680,207 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="15">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="15">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="15"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="17"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="20"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="21"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="21"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="21"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="21"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="22"/>
     </row>
   </sheetData>
@@ -2778,23 +2898,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="70.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="70.5703125" customWidth="1"/>
     <col min="3" max="3" width="9" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -2802,7 +2922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -2810,7 +2930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2818,13 +2938,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="5.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="5.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -2835,165 +2955,207 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="15"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="17"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="20"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="21"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="21"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="21"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="21"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="22"/>
     </row>
   </sheetData>

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9585" windowHeight="4185" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9585" windowHeight="4185" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>Finalisation Correction textures</t>
+  </si>
+  <si>
+    <t>J'ai sans aucun doutes sauté le temps, et pas fait assez de fonctionnalités a mon avis, et même avec mes efforts, je n'ai pas répondu aux attentes, mais il y a de qe quoi de fait</t>
+  </si>
+  <si>
+    <t>J'ai vastement sous-estimé l'ampleur de ce qui m'attendais, et cela résulte en du progrès très ralenti. Même avec beaucoup d'efforts, le projet n'ira pas loin</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
@@ -2023,7 +2029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -2314,7 +2320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -2623,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2857,7 +2863,9 @@
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
@@ -2866,7 +2874,9 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="20" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="21"/>
@@ -2898,8 +2908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,7 +3142,9 @@
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
@@ -3141,7 +3153,9 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="20" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="21"/>
